--- a/Training/sample.xlsx
+++ b/Training/sample.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB9E7FA-0331-5145-BCAB-41317B97367D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Cases</t>
@@ -83,9 +81,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,15 +142,27 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +293,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,156 +486,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>26496</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>43947</v>
-      </c>
-      <c r="C2" s="2">
-        <v>26496</v>
-      </c>
-      <c r="D2" s="2">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1">
+        <v>39053</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2836.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>43948</v>
-      </c>
-      <c r="C3" s="2">
-        <v>39053</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2836.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>83909</v>
+      </c>
+      <c r="C4" s="1">
+        <v>58.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>43949</v>
-      </c>
-      <c r="C4" s="2">
-        <v>83909</v>
-      </c>
-      <c r="D4" s="2">
-        <v>58.29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>6703</v>
+      </c>
+      <c r="C5" s="1">
+        <v>262.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>43947</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6703</v>
-      </c>
-      <c r="D5" s="2">
-        <v>262.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1">
+        <v>13182</v>
+      </c>
+      <c r="C6" s="1">
+        <v>104.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>43947</v>
-      </c>
-      <c r="C6" s="2">
-        <v>13182</v>
-      </c>
-      <c r="D6" s="2">
-        <v>104.22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1">
+        <v>20763</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1901.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>43946</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20763</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1901.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1">
+        <v>15417</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1840.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>43947</v>
-      </c>
-      <c r="C8" s="2">
-        <v>15417</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1840.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>19535</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3230.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>43945</v>
-      </c>
-      <c r="C9" s="2">
-        <v>19535</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3230.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>43944</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
         <v>93234</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1">
         <v>3230.98</v>
       </c>
     </row>
@@ -591,81 +616,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>592</v>
       </c>
     </row>

--- a/Training/sample.xlsx
+++ b/Training/sample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB9E7FA-0331-5145-BCAB-41317B97367D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4DD91-CDA6-D341-A70A-9FBBD4FA14C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid" sheetId="1" r:id="rId1"/>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Training/sample.xlsx
+++ b/Training/sample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83EC57E-37BE-8C41-B842-40D9CD18201A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD0729-FD03-FD49-9BC9-91B104475618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="3440" windowWidth="25600" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="480" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -617,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
